--- a/Data/2006 STOP Summary.xlsx
+++ b/Data/2006 STOP Summary.xlsx
@@ -18746,7 +18746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
@@ -22699,7 +22699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
@@ -28179,7 +28179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
@@ -33725,7 +33725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -36804,7 +36804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>

--- a/Data/2006 STOP Summary.xlsx
+++ b/Data/2006 STOP Summary.xlsx
@@ -2483,7 +2483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT21"/>
+  <dimension ref="A1:BT20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7028,13 +7028,6 @@
       </c>
       <c r="BT20" t="n">
         <v>882233.97</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Plumas-Sierra County Fair (FY 05/06) DATA NOT AVAILABLE</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -17673,7 +17666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV5"/>
+  <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18726,13 +18719,6 @@
       </c>
       <c r="BV4" t="n">
         <v>33546798</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Los Angeles County Fair         DATA NOT AVAILABLE</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -18746,7 +18732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
@@ -22540,119 +22526,9 @@
         <v>1081676.77</v>
       </c>
     </row>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="17" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="N2:N3"/>
@@ -22699,7 +22575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
@@ -28016,119 +27892,9 @@
       </c>
       <c r="V88" s="112" t="n"/>
     </row>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="17" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="V2:V3"/>
@@ -28179,7 +27945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
@@ -33562,117 +33328,9 @@
         <v>2312513.87</v>
       </c>
     </row>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="16" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="N2:N3"/>
@@ -33725,7 +33383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -36654,117 +36312,9 @@
         <v>6475979.17</v>
       </c>
     </row>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96">
       <c r="A96" s="16" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A59:B60"/>
@@ -36804,7 +36354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
@@ -38925,118 +38475,9 @@
     <row r="89">
       <c r="A89" s="15" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94">
       <c r="A94" s="16" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A56:B57"/>
@@ -39073,7 +38514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
@@ -41221,121 +40662,12 @@
         <v>15177968</v>
       </c>
     </row>
-    <row r="89"/>
     <row r="90">
       <c r="A90" s="15" t="n"/>
     </row>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95">
       <c r="A95" s="16" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A57:B58"/>
@@ -41372,7 +40704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -42916,118 +42248,12 @@
     <row r="91">
       <c r="A91" s="15" t="n"/>
     </row>
-    <row r="92"/>
     <row r="93">
       <c r="E93" s="35" t="n"/>
     </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="16" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E2:E3"/>
